--- a/NEW HR/DONE/DEL MUNDO, JONAS.xlsx
+++ b/NEW HR/DONE/DEL MUNDO, JONAS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,25 +27,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,6 +262,9 @@
   </si>
   <si>
     <t>4/19,20/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1199,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1242,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1366,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1432,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1495,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1593,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1652,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1717,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1760,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1835,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2021,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2087,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2145,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2211,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2267,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2342,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2385,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2451,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2507,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,9 +2983,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7173,7 +7168,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7267,6 +7262,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7288,6 +7286,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>115</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
